--- a/Approvalmatrix.xlsx
+++ b/Approvalmatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servicenow-my.sharepoint.com/personal/shaowei_tan_servicenow_com/Documents/App Engine Bootcamp/sapmodernizationlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{0962FA4C-E35F-F045-BD47-BE1D8568157B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79D42F7B-37F1-6F40-A9EC-47CC194D2734}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{0962FA4C-E35F-F045-BD47-BE1D8568157B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{003FF961-35E2-D947-96FE-308C04F3EF2B}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{F8710B21-0EF1-A148-BA6A-776A6EE2EC04}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>Standard sales order</t>
   </si>
   <si>
-    <t>Rush Order</t>
-  </si>
-  <si>
     <t>Approval Group</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>Any amount</t>
+  </si>
+  <si>
+    <t>Rush order</t>
   </si>
 </sst>
 </file>
@@ -131,25 +131,25 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="18"/>
-        <color theme="1"/>
-        <name val="Helvetica"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color theme="1"/>
         <name val="Helvetica"/>
         <family val="2"/>
@@ -299,9 +299,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{FC6BDDF5-69BF-8247-84F7-1DA5D6E8E1FA}" name="Sales Order Amount" dataDxfId="0" totalsRowDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{F39FA9D2-5B23-2744-A094-D5E7472EA788}" name="Sales Order Type" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F51E9FA8-55C1-6F48-A629-2842C92EC4E3}" name="Approval Group" totalsRowFunction="count" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{FC6BDDF5-69BF-8247-84F7-1DA5D6E8E1FA}" name="Sales Order Amount" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{F39FA9D2-5B23-2744-A094-D5E7472EA788}" name="Sales Order Type" totalsRowLabel="Total" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F51E9FA8-55C1-6F48-A629-2842C92EC4E3}" name="Approval Group" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -607,7 +607,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="214" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,51 +626,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
